--- a/Managment/Plans/Review Log.xlsx
+++ b/Managment/Plans/Review Log.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI intake 38\26- Project Management with Embeded\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasserI\Documents\ITI\Embeded\Team4\Air-Conditioner-Screen-Team-4\Managment\Plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16812" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>Air Conditioner Screen Review Log</t>
   </si>
@@ -132,12 +132,96 @@
   </si>
   <si>
     <t>Missing Configuration Management tools and Baseline</t>
+  </si>
+  <si>
+    <t>Risk mangment plan</t>
+  </si>
+  <si>
+    <t>Islam Yasser</t>
+  </si>
+  <si>
+    <t>Duplicate file as it is found under Schedule and Plans folder</t>
+  </si>
+  <si>
+    <t>Screen Shots in Schedule</t>
+  </si>
+  <si>
+    <t>Screen Shots is not clear (Duration has '?') and Conflict (Test case preperation owner is yasmine then she owns review log?)</t>
+  </si>
+  <si>
+    <t>Review Log</t>
+  </si>
+  <si>
+    <t>Date colomn is refered to what?</t>
+  </si>
+  <si>
+    <t>Where is the one how solve the issue?</t>
+  </si>
+  <si>
+    <t>Version History not matched with Version number of the document</t>
+  </si>
+  <si>
+    <t>Roles and responsibilty has wiered name (Enje Zinhom) and what is the difference between full access and full authority</t>
+  </si>
+  <si>
+    <t>PP_Team4</t>
+  </si>
+  <si>
+    <t>Risks part not covered in Risk mangment plan?</t>
+  </si>
+  <si>
+    <t>RASIC_Table</t>
+  </si>
+  <si>
+    <t>What is the difference between Accountable and Responsible</t>
+  </si>
+  <si>
+    <t>The work not distributed fairly</t>
+  </si>
+  <si>
+    <t>Test_Plan</t>
+  </si>
+  <si>
+    <t>Version: 1.0
+Created: 04/04/2018
+Last Updated: 04/05/2018
+How there is update without new version</t>
+  </si>
+  <si>
+    <t>(MicroController and Hardware Connection) how these items will be tested</t>
+  </si>
+  <si>
+    <t>You must mention the used tools during project</t>
+  </si>
+  <si>
+    <t>WBS</t>
+  </si>
+  <si>
+    <t>where is the UAT in testing branch?</t>
+  </si>
+  <si>
+    <t>TestCases</t>
+  </si>
+  <si>
+    <t>Where is the objective of TC1 ?</t>
+  </si>
+  <si>
+    <t>Preconditions should be more accurate will be discussed in session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM </t>
+  </si>
+  <si>
+    <t>No use for the gitextension and the folders uploaded through web?</t>
+  </si>
+  <si>
+    <t>Add revision history</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -192,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -215,15 +299,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,35 +593,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1"/>
-    <col min="2" max="2" width="36.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="1"/>
+    <col min="2" max="2" width="36.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="1"/>
+    <col min="6" max="6" width="42.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -555,7 +644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -578,7 +667,7 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -601,7 +690,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -624,7 +713,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -647,7 +736,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -666,18 +755,18 @@
       <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>43255</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -686,18 +775,301 @@
       <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>43255</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="8"/>
+    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="12">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="12">
+        <v>43408</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
